--- a/_qDailyReport/20240722_콰이어트 리더십.xlsx
+++ b/_qDailyReport/20240722_콰이어트 리더십.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18375" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="리더십점검항목" sheetId="1" r:id="rId1"/>
     <sheet name="위임을가로막는원인" sheetId="2" r:id="rId2"/>
+    <sheet name="팀원과 프로젝트를 이끌기 위한 4P 프로세스" sheetId="3" r:id="rId3"/>
+    <sheet name="강력한 프리젠테이션을 하기 위한 4P 프로세스" sheetId="4" r:id="rId4"/>
+    <sheet name="회의를 주도하기 위한 4P 프로세스" sheetId="5" r:id="rId5"/>
+    <sheet name="내향형 리더의 네트워킹을 위한 4P 프로세스" sheetId="6" r:id="rId6"/>
+    <sheet name="내향형 리더의 커뮤니케이션을 위한 4P 프로세스" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>리더십 점검항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +210,171 @@
   </si>
   <si>
     <t>그밖의 반박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재감 드러내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀어붙이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원과 프로젝트를 이끌기 위한 4P 프로세스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기 자신을 파악하라.
+팀을 만들어라.
+팀원들을 이해하라.
+환경을 조성하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 안을 걸어다녀라.
+글로 써라.
+경청하라.
+먼저 다가가 대화하라.
+표정에 신경을 써라.
+때에 따라 스타일을 유연하게 바꿔라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호하라.
+위임하라.
+열린 태도를 취하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 시스템을 구축하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강력한 프리젠테이션을 하기 위한 4P 프로세스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료를 준비하라.
+자신을 준비시켜라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청중과 유대감을 맺어라.
+잠시 멈춰라.
+신체 언어를 사용하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼마나 밀어붙여야 하는지 파악하라.
+크게 말하라.
+창의력을 발휘하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습할 기회를 만들어라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의를 주도하기 위한 4P 프로세스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적을 분명히 하라.
+회의에 기여할 수 있도록 도와라.
+쉽게 참여하게 만들어라.
+앉을 자리를 파악하라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 규칙을 만들고 시행하라.
+브레인라이팅 기법을 이용하라.
+첫 5분 안에 목소리를 내라.
+휴식 시간을 마련하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 기술을 현명하게 사용하라.
+외향적인 사람을 다루는 기술을 연마하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 방법을 시도하라.
+회의를 연습의 장으로 활용하라.
+회의 전문가가 되어라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내향형 리더의 네트워킹을 위한 4P 프로세스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적을 파악하라.
+제공할 수 있는 것과 필요한 것이 무엇인지 판단하라.
+질문을 준비하라.
+SNS 전략을 세워라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경청하라.
+다른 표현으로 다시 말하라.
+관찰하고 판단하라.
+영양가 있는 대화를 나눠라.
+공통점을 찾아라.
+당신이 하는 일로 관심을 끌어라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자발성을 키워라.
+휴식할 장소를 확보하라.
+필요하다면 자리에서 일어나라.
+편한 장소로 약속을 잡아라.
+이름을 외우고, 알려라.
+대화 분위기를 주도하라.
+다른 사람을 소개하라.
+휴대 전화를 치워라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크에 먹이를 공급하라.
+후속 조치를 취하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내향형 리더의 커뮤니케이션을 위한 4P 프로세스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영향력을 늘려라.
+대화 시나리오를 써라.
+좋은 질문을 하라.
+생산적인 코칭 계획을 세워라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 결과를 기대하는 지 알려라.
+구성원들의 의견을 구하라.
+적절한 의사소통 수단을 찾아라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타일을 유연하게 운용하라.
+변화의 시기에는 더 긴밀히 소통하라.
+목소리를 이용하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열린 질문을 하라.
+상대의 눈썹을 주시하라.
+목소리를 녹음하라.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -617,13 +787,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,9 +898,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,15 +905,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
@@ -714,11 +937,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,19 +1277,19 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1050,7 +1312,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +1333,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1354,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="15"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1113,7 +1375,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1136,7 +1398,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1157,7 +1419,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1440,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1199,7 +1461,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1222,7 +1484,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1243,7 +1505,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="8" t="s">
         <v>14</v>
       </c>
@@ -1264,7 +1526,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1285,7 +1547,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1308,7 +1570,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
@@ -1329,7 +1591,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1612,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
@@ -1371,7 +1633,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1394,7 +1656,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1415,7 +1677,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1436,7 +1698,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="15"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="9" t="s">
         <v>25</v>
       </c>
@@ -1457,7 +1719,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="32" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1480,7 +1742,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="8" t="s">
         <v>28</v>
       </c>
@@ -1501,7 +1763,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="8" t="s">
         <v>29</v>
       </c>
@@ -1522,7 +1784,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="15"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="9" t="s">
         <v>30</v>
       </c>
@@ -1563,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1575,56 +1837,56 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="2:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1637,4 +1899,316 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="45.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="2:3" ht="102" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="61.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="2:3" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="49.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="2:3" ht="73.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="43.875" customWidth="1"/>
+    <col min="3" max="3" width="49.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="2:3" ht="137.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="43.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="2:3" ht="81" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_qDailyReport/20240722_콰이어트 리더십.xlsx
+++ b/_qDailyReport/20240722_콰이어트 리더십.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18375" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18375" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="리더십점검항목" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="회의를 주도하기 위한 4P 프로세스" sheetId="5" r:id="rId5"/>
     <sheet name="내향형 리더의 네트워킹을 위한 4P 프로세스" sheetId="6" r:id="rId6"/>
     <sheet name="내향형 리더의 커뮤니케이션을 위한 4P 프로세스" sheetId="7" r:id="rId7"/>
+    <sheet name="상사와의 성공적인 관계 맺기를 위한 4P 프로세스" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>리더십 점검항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +376,38 @@
     <t>열린 질문을 하라.
 상대의 눈썹을 주시하라.
 목소리를 녹음하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상사와의 성공적인 관계 맺기를 위한 4P 프로세스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 만나라.
+상사에게 무엇을 줄 수 있는지 판단하라.
+호기심을 지녀라.
+필요한 자원이 무엇인지 파악하라.
+상사의 스타일을 관찰하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 스타일로 일하라.
+성과를 알려라.
+피드백에 따라 조치하라.
+멘토 혹은 지원을 요청하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정직하라.
+상사에게 피드백을 제공하라.
+SAR 기법을 활용하라.
+상사를 보호하라.
+물러서야 할 때를 알아라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화의 선두에 서라.
+다양한 접근방식을 고려하라.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,30 +979,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -981,6 +990,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,19 +1319,19 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1312,7 +1354,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1333,7 +1375,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +1396,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="28"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1417,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1398,7 +1440,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1461,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
@@ -1440,7 +1482,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="28"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1461,7 +1503,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1484,7 +1526,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1505,7 +1547,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="8" t="s">
         <v>14</v>
       </c>
@@ -1526,7 +1568,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="28"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1589,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1570,7 +1612,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
@@ -1591,7 +1633,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
@@ -1612,7 +1654,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="28"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
@@ -1633,7 +1675,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1656,7 +1698,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1677,7 +1719,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1698,7 +1740,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="28"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="9" t="s">
         <v>25</v>
       </c>
@@ -1719,7 +1761,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="39" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1742,7 +1784,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="8" t="s">
         <v>28</v>
       </c>
@@ -1763,7 +1805,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="8" t="s">
         <v>29</v>
       </c>
@@ -1784,7 +1826,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="28"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="9" t="s">
         <v>30</v>
       </c>
@@ -1837,10 +1879,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="2:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="24" t="s">
@@ -1916,16 +1958,16 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="2:3" ht="102" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="29" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1933,7 +1975,7 @@
       <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1941,7 +1983,7 @@
       <c r="B5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="30" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1949,7 +1991,7 @@
       <c r="B6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="31" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1979,16 +2021,16 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="2:3" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="29" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1996,7 +2038,7 @@
       <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2004,7 +2046,7 @@
       <c r="B5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2012,7 +2054,7 @@
       <c r="B6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="31" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2041,16 +2083,16 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="2:3" ht="73.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="29" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2058,7 +2100,7 @@
       <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2066,7 +2108,7 @@
       <c r="B5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2074,7 +2116,7 @@
       <c r="B6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="32" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2104,16 +2146,16 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="2:3" ht="137.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="29" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2121,7 +2163,7 @@
       <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2129,7 +2171,7 @@
       <c r="B5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="30" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2137,7 +2179,7 @@
       <c r="B6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="32" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2155,7 +2197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
@@ -2166,16 +2208,16 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="2:3" ht="81" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="29" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2183,7 +2225,7 @@
       <c r="B4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2191,7 +2233,7 @@
       <c r="B5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="30" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2199,7 +2241,7 @@
       <c r="B6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="32" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2211,4 +2253,67 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="49.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="43"/>
+    </row>
+    <row r="3" spans="2:3" ht="91.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>